--- a/MyTest/result.xlsx
+++ b/MyTest/result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>total op</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mem(total)(MB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>time(u)(ms)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,14 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,6 +74,50 @@
   </si>
   <si>
     <t>80ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.67g+0.66g+0.93g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15m+6.56m+9.6m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.48m+1.79m+2.84m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.2m+9.23m+7.17m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.19m+4.71m+3.83m+3.25m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -424,25 +456,25 @@
     <col min="6" max="6" width="10.4609375" customWidth="1"/>
     <col min="7" max="7" width="9.765625" customWidth="1"/>
     <col min="8" max="8" width="10.53515625" customWidth="1"/>
-    <col min="9" max="9" width="10.07421875" customWidth="1"/>
-    <col min="10" max="10" width="14.3046875" customWidth="1"/>
+    <col min="9" max="9" width="12.53515625" customWidth="1"/>
+    <col min="10" max="10" width="28.61328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -451,18 +483,18 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -471,25 +503,25 @@
         <v>1000</v>
       </c>
       <c r="D2">
+        <v>515</v>
+      </c>
+      <c r="E2">
         <v>485</v>
       </c>
-      <c r="E2">
-        <v>515</v>
-      </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H2">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="I2">
-        <v>35</v>
-      </c>
-      <c r="J2">
-        <v>8.9600000000000009</v>
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -500,10 +532,10 @@
         <v>2000</v>
       </c>
       <c r="D3">
+        <v>986</v>
+      </c>
+      <c r="E3">
         <v>1014</v>
-      </c>
-      <c r="E3">
-        <v>986</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -512,13 +544,13 @@
         <v>5</v>
       </c>
       <c r="H3">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I3">
-        <v>75</v>
-      </c>
-      <c r="J3">
-        <v>31.08</v>
+        <v>70</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -529,25 +561,83 @@
         <v>2000</v>
       </c>
       <c r="D4">
+        <v>400</v>
+      </c>
+      <c r="E4">
         <v>1600</v>
       </c>
-      <c r="E4">
-        <v>400</v>
-      </c>
       <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>87</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>10000</v>
+      </c>
+      <c r="D5">
+        <v>5002</v>
+      </c>
+      <c r="E5">
+        <v>4998</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>1460</v>
+      </c>
+      <c r="I5">
+        <v>1960</v>
+      </c>
+      <c r="J5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>14</v>
-      </c>
-      <c r="I4">
-        <v>92</v>
-      </c>
-      <c r="J4">
-        <v>31.08</v>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1500</v>
+      </c>
+      <c r="D7">
+        <v>727</v>
+      </c>
+      <c r="E7">
+        <v>723</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>55</v>
+      </c>
+      <c r="I7">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/MyTest/result.xlsx
+++ b/MyTest/result.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22264" windowHeight="12642"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="本地" sheetId="1" r:id="rId1"/>
+    <sheet name="阿里云" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,49 +20,125 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+  <si>
+    <t>split</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>union</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay(u)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time(u)(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time(s)(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.67g+0.66g+0.93g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15m+6.56m+9.6m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.48m+1.79m+2.84m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.2m+9.23m+7.17m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.19m+4.71m+3.83m+3.25m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.36m+6.42m+3.41m+4.56m+6.25m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>total op</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>split</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>union</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delay(u)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delay(s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time(u)(ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time(s)(ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>client</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
+    <t>30ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3221.62m+60.88m+61.35m+61.56m+63.35m+64.45m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -69,55 +146,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.67g+0.66g+0.93g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15m+6.56m+9.6m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.48m+1.79m+2.84m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15.2m+9.23m+7.17m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.19m+4.71m+3.83m+3.25m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ms</t>
+    <t>7.48m+3.21m+3.43m_+2.26m+2.46m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem(server+c1+c2+...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ot calls(server+c1+c2+...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>790+557+685+376+368</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.92m+8.58m+8.35m+3.54m+5.98m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1539+739+1288+1110+355</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,201 +492,369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="53.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>515</v>
+      </c>
+      <c r="E2">
+        <v>485</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+      <c r="D3">
+        <v>986</v>
+      </c>
+      <c r="E3">
+        <v>1014</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>70</v>
+      </c>
+      <c r="I3">
+        <v>70</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="D4">
+        <v>400</v>
+      </c>
+      <c r="E4">
+        <v>1600</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>87</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>10000</v>
+      </c>
+      <c r="D5">
+        <v>5002</v>
+      </c>
+      <c r="E5">
+        <v>4998</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>1460</v>
+      </c>
+      <c r="I5">
+        <v>1960</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1500</v>
+      </c>
+      <c r="D7">
+        <v>727</v>
+      </c>
+      <c r="E7">
+        <v>723</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7">
+        <v>55</v>
+      </c>
+      <c r="I7">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>2000</v>
+      </c>
+      <c r="D8">
+        <v>959</v>
+      </c>
+      <c r="E8">
+        <v>1041</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>138</v>
+      </c>
+      <c r="I8">
+        <v>140</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>2500</v>
+      </c>
+      <c r="D9">
+        <v>1274</v>
+      </c>
+      <c r="E9">
+        <v>1226</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>315</v>
+      </c>
+      <c r="I9">
+        <v>306</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.921875" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="6" max="6" width="10.4609375" customWidth="1"/>
-    <col min="7" max="7" width="9.765625" customWidth="1"/>
-    <col min="8" max="8" width="10.53515625" customWidth="1"/>
-    <col min="9" max="9" width="12.53515625" customWidth="1"/>
-    <col min="10" max="10" width="28.61328125" customWidth="1"/>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="3" max="3" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
       <c r="C2">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="D2">
-        <v>515</v>
+        <v>600</v>
       </c>
       <c r="E2">
-        <v>485</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2">
-        <v>19</v>
-      </c>
-      <c r="I2">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+      <c r="F2">
+        <v>119</v>
+      </c>
+      <c r="G2">
+        <v>112</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>2000</v>
       </c>
       <c r="D3">
-        <v>986</v>
+        <v>1013</v>
       </c>
       <c r="E3">
-        <v>1014</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>70</v>
-      </c>
-      <c r="I3">
-        <v>70</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2000</v>
-      </c>
-      <c r="D4">
-        <v>400</v>
-      </c>
-      <c r="E4">
-        <v>1600</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4">
-        <v>13</v>
-      </c>
-      <c r="I4">
-        <v>87</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>10000</v>
-      </c>
-      <c r="D5">
-        <v>5002</v>
-      </c>
-      <c r="E5">
-        <v>4998</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5">
-        <v>1460</v>
-      </c>
-      <c r="I5">
-        <v>1960</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>1500</v>
-      </c>
-      <c r="D7">
-        <v>727</v>
-      </c>
-      <c r="E7">
-        <v>723</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7">
-        <v>55</v>
-      </c>
-      <c r="I7">
-        <v>56</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
+        <v>987</v>
+      </c>
+      <c r="F3">
+        <v>327</v>
+      </c>
+      <c r="G3">
+        <v>334</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/MyTest/result.xlsx
+++ b/MyTest/result.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22264" windowHeight="12642"/>
   </bookViews>
   <sheets>
-    <sheet name="本地" sheetId="1" r:id="rId1"/>
-    <sheet name="阿里云" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+  <si>
+    <t>total op</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>split</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +65,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>22,30/47,80/225,890/12,34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>50ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,62 +118,6 @@
   </si>
   <si>
     <t>50ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17.36m+6.42m+3.41m+4.56m+6.25m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total op</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3221.62m+60.88m+61.35m+61.56m+63.35m+64.45m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22,30/47,80/225,890/12,34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.48m+3.21m+3.43m_+2.26m+2.46m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem(server+c1+c2+...)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ot calls(server+c1+c2+...)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>790+557+685+376+368</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21.92m+8.58m+8.35m+3.54m+5.98m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1539+739+1288+1110+355</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,58 +443,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.875" customWidth="1"/>
+    <col min="1" max="1" width="25.921875" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="53.75" customWidth="1"/>
+    <col min="6" max="6" width="10.4609375" customWidth="1"/>
+    <col min="7" max="7" width="9.765625" customWidth="1"/>
+    <col min="8" max="8" width="10.53515625" customWidth="1"/>
+    <col min="9" max="9" width="12.53515625" customWidth="1"/>
+    <col min="10" max="10" width="28.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -558,10 +509,10 @@
         <v>485</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>19</v>
@@ -570,10 +521,10 @@
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>2</v>
       </c>
@@ -587,10 +538,10 @@
         <v>1014</v>
       </c>
       <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
         <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
       </c>
       <c r="H3">
         <v>70</v>
@@ -599,10 +550,10 @@
         <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>2</v>
       </c>
@@ -616,10 +567,10 @@
         <v>1600</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>13</v>
@@ -628,10 +579,10 @@
         <v>87</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>2</v>
       </c>
@@ -645,10 +596,10 @@
         <v>4998</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>1460</v>
@@ -657,10 +608,10 @@
         <v>1960</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>3</v>
       </c>
@@ -674,10 +625,10 @@
         <v>723</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H7">
         <v>55</v>
@@ -686,175 +637,7 @@
         <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>2000</v>
-      </c>
-      <c r="D8">
-        <v>959</v>
-      </c>
-      <c r="E8">
-        <v>1041</v>
-      </c>
-      <c r="F8" t="s">
         <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8">
-        <v>138</v>
-      </c>
-      <c r="I8">
-        <v>140</v>
-      </c>
-      <c r="J8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>2500</v>
-      </c>
-      <c r="D9">
-        <v>1274</v>
-      </c>
-      <c r="E9">
-        <v>1226</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9">
-        <v>315</v>
-      </c>
-      <c r="I9">
-        <v>306</v>
-      </c>
-      <c r="J9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="2" max="2" width="5.375" customWidth="1"/>
-    <col min="3" max="3" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="34.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1200</v>
-      </c>
-      <c r="D2">
-        <v>600</v>
-      </c>
-      <c r="E2">
-        <v>600</v>
-      </c>
-      <c r="F2">
-        <v>119</v>
-      </c>
-      <c r="G2">
-        <v>112</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>2000</v>
-      </c>
-      <c r="D3">
-        <v>1013</v>
-      </c>
-      <c r="E3">
-        <v>987</v>
-      </c>
-      <c r="F3">
-        <v>327</v>
-      </c>
-      <c r="G3">
-        <v>334</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/MyTest/result.xlsx
+++ b/MyTest/result.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22264" windowHeight="12642"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="本地" sheetId="1" r:id="rId1"/>
+    <sheet name="阿里云" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>total op</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +119,26 @@
   </si>
   <si>
     <t>50ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.53m+2.9m+2.94m+2.66m+3.53m+2.34m+2.71m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42.18m+9.55m+9.5m+9.28m+9.84m+7.87m+9.37m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem(server+n clients)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ot calls(server)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69.95m+15.77m+14.54m+13.38m+14.96m+14.49m+13.72m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,22 +466,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.921875" customWidth="1"/>
+    <col min="1" max="1" width="25.875" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="6" max="6" width="10.4609375" customWidth="1"/>
-    <col min="7" max="7" width="9.765625" customWidth="1"/>
-    <col min="8" max="8" width="10.53515625" customWidth="1"/>
-    <col min="9" max="9" width="12.53515625" customWidth="1"/>
-    <col min="10" max="10" width="28.61328125" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -492,7 +513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -524,7 +545,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>2</v>
       </c>
@@ -553,7 +574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
@@ -582,7 +603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
@@ -611,7 +632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>3</v>
       </c>
@@ -638,6 +659,134 @@
       </c>
       <c r="J7" t="s">
         <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="51.375" customWidth="1"/>
+    <col min="9" max="9" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>600</v>
+      </c>
+      <c r="D2">
+        <v>307</v>
+      </c>
+      <c r="E2">
+        <v>293</v>
+      </c>
+      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1200</v>
+      </c>
+      <c r="D3">
+        <v>620</v>
+      </c>
+      <c r="E3">
+        <v>580</v>
+      </c>
+      <c r="F3">
+        <v>424</v>
+      </c>
+      <c r="G3">
+        <v>434</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1800</v>
+      </c>
+      <c r="D4">
+        <v>926</v>
+      </c>
+      <c r="E4">
+        <v>874</v>
+      </c>
+      <c r="F4">
+        <v>1375</v>
+      </c>
+      <c r="G4">
+        <v>1217</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/MyTest/result.xlsx
+++ b/MyTest/result.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>total op</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,7 +138,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>69.95m+15.77m+14.54m+13.38m+14.96m+14.49m+13.72m</t>
+    <t>142.82m+30.57m+29.72m+29.48m+26.76m+27.86m+30.77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>262.1+52.25+54.27+53.02+51.74+54.07+51.24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,10 +674,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -774,19 +778,42 @@
         <v>1800</v>
       </c>
       <c r="D4">
-        <v>926</v>
+        <v>900</v>
       </c>
       <c r="E4">
-        <v>874</v>
+        <v>900</v>
       </c>
       <c r="F4">
-        <v>1375</v>
+        <v>490</v>
       </c>
       <c r="G4">
-        <v>1217</v>
+        <v>498</v>
       </c>
       <c r="H4" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2400</v>
+      </c>
+      <c r="D5">
+        <v>1217</v>
+      </c>
+      <c r="E5">
+        <v>1183</v>
+      </c>
+      <c r="F5">
+        <v>924</v>
+      </c>
+      <c r="G5">
+        <v>891</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/MyTest/result.xlsx
+++ b/MyTest/result.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>total op</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,15 +134,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ot calls(server)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>142.82m+30.57m+29.72m+29.48m+26.76m+27.86m+30.77</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>262.1+52.25+54.27+53.02+51.74+54.07+51.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.26+4.68+3.53+3.38+3.85+2.88+2.92+2.97+3.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ot calls(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_duration(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_ot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dealy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2+4..45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.45+4.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.05+3.86+4.1+4.04+4.03+2.71+2.78+2.78+2.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>605.08+122.45+120.41+118.01+121.14+115.02+125.24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,146 +706,258 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="51.375" customWidth="1"/>
-    <col min="9" max="9" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="51.375" customWidth="1"/>
+    <col min="10" max="10" width="10.375" customWidth="1"/>
+    <col min="11" max="11" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>600</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>307</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>293</v>
-      </c>
-      <c r="F2">
-        <v>19</v>
       </c>
       <c r="G2">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C3">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1200</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>620</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>580</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>424</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>434</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1102</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C4">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1800</v>
-      </c>
-      <c r="D4">
-        <v>900</v>
       </c>
       <c r="E4">
         <v>900</v>
       </c>
       <c r="F4">
+        <v>900</v>
+      </c>
+      <c r="G4">
         <v>490</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>498</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>2400</v>
+      </c>
+      <c r="E5">
+        <v>1217</v>
+      </c>
+      <c r="F5">
+        <v>1183</v>
+      </c>
+      <c r="G5">
+        <v>924</v>
+      </c>
+      <c r="H5">
+        <v>891</v>
+      </c>
+      <c r="I5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>2400</v>
-      </c>
-      <c r="D5">
-        <v>1217</v>
-      </c>
-      <c r="E5">
-        <v>1183</v>
-      </c>
-      <c r="F5">
-        <v>924</v>
-      </c>
-      <c r="G5">
-        <v>891</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="D6">
+        <v>3000</v>
+      </c>
+      <c r="E6">
+        <v>1865</v>
+      </c>
+      <c r="F6">
+        <v>1735</v>
+      </c>
+      <c r="G6">
+        <v>2086</v>
+      </c>
+      <c r="H6">
+        <v>2091</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6">
+        <v>3576</v>
+      </c>
+      <c r="K6">
+        <v>9277</v>
+      </c>
+      <c r="L6">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>600</v>
+      </c>
+      <c r="E9">
+        <v>303</v>
+      </c>
+      <c r="F9">
+        <v>297</v>
+      </c>
+      <c r="G9">
+        <v>52.7</v>
+      </c>
+      <c r="H9">
+        <v>49.9</v>
+      </c>
+      <c r="I9" t="s">
         <v>30</v>
+      </c>
+      <c r="J9">
+        <v>583</v>
+      </c>
+      <c r="K9">
+        <v>1096</v>
+      </c>
+      <c r="L9">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>600</v>
+      </c>
+      <c r="E10">
+        <v>293</v>
+      </c>
+      <c r="F10">
+        <v>307</v>
+      </c>
+      <c r="G10">
+        <v>50.2</v>
+      </c>
+      <c r="H10">
+        <v>53.3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10">
+        <v>594</v>
+      </c>
+      <c r="K10">
+        <v>1064</v>
+      </c>
+      <c r="L10">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
